--- a/Documentation/Operator_equal.xlsx
+++ b/Documentation/Operator_equal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\SQLComponents\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D64E23EE-0EF5-4DC5-B1BA-CB86F6389AF0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4B347ED2-CCB6-44D2-8E71-FEF33DFF0EFC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{DBCEA4FC-0CED-4C39-BF06-DAE0EBFE6284}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>□</t>
   </si>
   <si>
-    <t>SQLVariant comparison operators (== != &lt; &gt; &lt;= &gt;=)</t>
-  </si>
-  <si>
     <t>oper</t>
+  </si>
+  <si>
+    <t>Comparison operators</t>
   </si>
 </sst>
 </file>
@@ -153,7 +153,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +175,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -310,6 +316,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -626,9 +633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370B567D-5DB4-4496-8373-D8510CAE21BF}">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -638,16 +643,21 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="3" spans="1:21" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>19</v>
